--- a/deployment/Omaha_Cal_Info_CP02PMCI_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP02PMCI_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CP02PMCI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="7224" windowWidth="25980" windowHeight="12420" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="6420" yWindow="7230" windowWidth="25980" windowHeight="12420" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="83">
   <si>
     <t>Ref Des</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>N00039</t>
+  </si>
+  <si>
+    <t>OL000340</t>
   </si>
 </sst>
 </file>
@@ -1068,27 +1071,27 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>69</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -1161,14 +1164,20 @@
         <v>65</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M2" s="9">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
+        <v>40.226533333333336</v>
+      </c>
+      <c r="N2" s="9">
+        <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
+        <v>-70.877949999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
@@ -1188,22 +1197,22 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>66</v>
       </c>
@@ -1264,7 +1273,7 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>66</v>
       </c>
@@ -1297,7 +1306,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -1330,7 +1339,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
@@ -1347,7 +1356,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>41</v>
       </c>
@@ -1376,7 +1385,7 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1393,7 +1402,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
@@ -1428,7 +1437,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>36</v>
       </c>
@@ -1461,7 +1470,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>36</v>
       </c>
@@ -1494,7 +1503,7 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
@@ -1529,7 +1538,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>36</v>
       </c>
@@ -1564,7 +1573,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>36</v>
       </c>
@@ -1599,7 +1608,7 @@
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>36</v>
       </c>
@@ -1634,7 +1643,7 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
@@ -1669,7 +1678,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
@@ -1686,7 +1695,7 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>37</v>
       </c>
@@ -1719,7 +1728,7 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>37</v>
       </c>
@@ -1752,7 +1761,7 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -1769,7 +1778,7 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>64</v>
       </c>
@@ -1802,7 +1811,7 @@
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>64</v>
       </c>
@@ -1835,7 +1844,7 @@
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
@@ -1852,7 +1861,7 @@
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1887,7 +1896,7 @@
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>38</v>
       </c>
@@ -1922,7 +1931,7 @@
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>38</v>
       </c>
@@ -1957,7 +1966,7 @@
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>38</v>
       </c>
@@ -1992,7 +2001,7 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>38</v>
       </c>
@@ -2027,7 +2036,7 @@
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>38</v>
       </c>
@@ -2062,7 +2071,7 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>38</v>
       </c>
@@ -2097,7 +2106,7 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>38</v>
       </c>
@@ -2132,7 +2141,7 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>38</v>
       </c>
@@ -2167,7 +2176,7 @@
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>38</v>
       </c>
@@ -2202,7 +2211,7 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
@@ -2219,7 +2228,7 @@
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>39</v>
       </c>
@@ -2254,7 +2263,7 @@
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>39</v>
       </c>
@@ -2289,7 +2298,7 @@
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
@@ -2306,7 +2315,7 @@
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>58</v>
       </c>
@@ -2335,7 +2344,7 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2352,7 +2361,7 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>40</v>
       </c>
@@ -2365,7 +2374,9 @@
       <c r="D39" s="11">
         <v>2</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="E39" t="s">
+        <v>82</v>
+      </c>
       <c r="F39" s="22" t="s">
         <v>67</v>
       </c>
